--- a/data/Scores 1002.xlsx
+++ b/data/Scores 1002.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j_a_r\OneDrive\Git_repos\c_tasks-1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AEB50EC-4F3B-470D-B131-48BBCFA297DD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{7AEB50EC-4F3B-470D-B131-48BBCFA297DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D20C5859-FFF0-4996-BA76-347B2A4668C6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{EEE5AC84-86C6-4DB9-9A4E-3DA2448634E6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{EEE5AC84-86C6-4DB9-9A4E-3DA2448634E6}"/>
   </bookViews>
   <sheets>
     <sheet name="BDSpan" sheetId="1" r:id="rId1"/>
     <sheet name="TONI scorer" sheetId="2" r:id="rId2"/>
     <sheet name="Tasks order" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -93,10 +98,10 @@
     <t>Score</t>
   </si>
   <si>
-    <t>a</t>
+    <t>Response</t>
   </si>
   <si>
-    <t>Response</t>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -196,7 +201,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -494,11 +499,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93B1105-691C-4956-A602-EEC3BF269FF4}">
   <dimension ref="A2:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -622,11 +627,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EA0037-A881-4C68-B762-EE436AFA1314}">
   <dimension ref="A2:D92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -636,7 +641,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -645,7 +650,7 @@
       </c>
       <c r="B3">
         <f>SUM(D5:D30)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -653,7 +658,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -665,9 +670,9 @@
       <c r="B5">
         <v>5</v>
       </c>
-      <c r="D5" t="b">
+      <c r="D5">
         <f>_xlfn.IFS($B$2="A",IF(B5=B67,1),$B$2="B",IF(B5=C67,1),$B$2="C",IF(B5=#REF!,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -689,9 +694,9 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="D7" t="b">
+      <c r="D7">
         <f>_xlfn.IFS($B$2="A",IF(B7=B69,1),$B$2="B",IF(B7=C69,1),$B$2="C",IF(B7=#REF!,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -725,9 +730,9 @@
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="D10" t="b">
+      <c r="D10">
         <f>_xlfn.IFS($B$2="A",IF(B10=B72,1),$B$2="B",IF(B10=C72,1),$B$2="C",IF(B10=#REF!,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -749,9 +754,9 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="b">
         <f>_xlfn.IFS($B$2="A",IF(B12=B74,1),$B$2="B",IF(B12=C74,1),$B$2="C",IF(B12=#REF!,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -773,9 +778,9 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" t="b">
+      <c r="D14">
         <f>_xlfn.IFS($B$2="A",IF(B14=B76,1),$B$2="B",IF(B14=C76,1),$B$2="C",IF(B14=#REF!,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -785,9 +790,9 @@
       <c r="B15">
         <v>3</v>
       </c>
-      <c r="D15" t="b">
+      <c r="D15">
         <f>_xlfn.IFS($B$2="A",IF(B15=B77,1),$B$2="B",IF(B15=C77,1),$B$2="C",IF(B15=#REF!,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -809,9 +814,9 @@
       <c r="B17">
         <v>5</v>
       </c>
-      <c r="D17" t="b">
+      <c r="D17">
         <f>_xlfn.IFS($B$2="A",IF(B17=B79,1),$B$2="B",IF(B17=C79,1),$B$2="C",IF(B17=#REF!,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -905,9 +910,9 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="b">
         <f>_xlfn.IFS($B$2="A",IF(B25=B87,1),$B$2="B",IF(B25=C87,1),$B$2="C",IF(B25=#REF!,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -917,9 +922,9 @@
       <c r="B26">
         <v>5</v>
       </c>
-      <c r="D26" t="b">
+      <c r="D26">
         <f>_xlfn.IFS($B$2="A",IF(B26=B88,1),$B$2="B",IF(B26=C88,1),$B$2="C",IF(B26=#REF!,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1199,7 +1204,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16" width="8.85546875" customWidth="1"/>
   </cols>
